--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTA12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Deep Fry Wok</t>
+    <t xml:space="preserve">PRTF00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
   </si>
   <si>
     <t xml:space="preserve">Diameter: 16cm 
@@ -107,28 +107,19 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTA23456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTA34567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTA45678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTA56789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test4</t>
+    <t xml:space="preserve">PRTF00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Shallow Rebus Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTF00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTF00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTF00005</t>
   </si>
 </sst>
 </file>
@@ -219,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,6 +231,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -252,75 +247,13 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -332,7 +265,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -490,36 +423,264 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>401</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>401</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>321</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>411</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>302</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>402</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>302</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>402</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>322</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>412</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>303</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>403</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>303</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>403</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>413</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>304</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>404</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>304</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>404</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>324</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>414</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTF00001</t>
+    <t xml:space="preserve">PRTS00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTF00002</t>
+    <t xml:space="preserve">PRTS00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTF00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTF00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTF00005</t>
+    <t xml:space="preserve">PRTS00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTS00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTS00005</t>
   </si>
 </sst>
 </file>
@@ -264,33 +264,33 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="10.49"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6185185185185"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.6814814814815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -684,7 +684,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A:A">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -733,7 +733,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTS00001</t>
+    <t xml:space="preserve">QRTS00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,19 +107,28 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTS00002</t>
+    <t xml:space="preserve">QRTS00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">PRTS00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTS00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTS00005</t>
+    <t xml:space="preserve">QRTS00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRTS00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Shallow KOBE Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRTS00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
   </si>
 </sst>
 </file>
@@ -244,16 +253,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -265,32 +264,32 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -493,7 +492,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -555,10 +554,10 @@
     </row>
     <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -620,10 +619,10 @@
     </row>
     <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -684,11 +683,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A:A">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="10">
     <dataValidation allowBlank="true" error="Kode SKU harus diisi dengan kode unik yang terdiri dari 4-20 karakter." errorTitle="SKU" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A6" type="textLength">
       <formula1>4</formula1>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">QRTS00001</t>
+    <t xml:space="preserve">KRTD00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">QRTS00002</t>
+    <t xml:space="preserve">KRTD00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">QRTS00003</t>
+    <t xml:space="preserve">KRTD00003</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
   </si>
   <si>
-    <t xml:space="preserve">QRTS00004</t>
+    <t xml:space="preserve">KRTD00004</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow KOBE Work</t>
   </si>
   <si>
-    <t xml:space="preserve">QRTS00005</t>
+    <t xml:space="preserve">KRTD00005</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
@@ -264,32 +264,29 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.0111111111111"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.2074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTD00001</t>
+    <t xml:space="preserve">PIPI00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTD00002</t>
+    <t xml:space="preserve">PIPI00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTD00003</t>
+    <t xml:space="preserve">PIPI00003</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTD00004</t>
+    <t xml:space="preserve">PIPI00004</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow KOBE Work</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTD00005</t>
+    <t xml:space="preserve">PIPI00005</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
@@ -264,29 +264,32 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPI00001</t>
+    <t xml:space="preserve">BEAT00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPI00002</t>
+    <t xml:space="preserve">BEAT00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPI00003</t>
+    <t xml:space="preserve">BEAT00003</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPI00004</t>
+    <t xml:space="preserve">BEAT00004</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow KOBE Work</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPI00005</t>
+    <t xml:space="preserve">BEAT00005</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
@@ -269,27 +269,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">BEAT00001</t>
+    <t xml:space="preserve">IMGG00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">BEAT00002</t>
+    <t xml:space="preserve">IMGG00002</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow Rebus Work</t>
   </si>
   <si>
-    <t xml:space="preserve">BEAT00003</t>
+    <t xml:space="preserve">IMGG00003</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
   </si>
   <si>
-    <t xml:space="preserve">BEAT00004</t>
+    <t xml:space="preserve">IMGG00004</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Shallow KOBE Work</t>
   </si>
   <si>
-    <t xml:space="preserve">BEAT00005</t>
+    <t xml:space="preserve">IMGG00005</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
@@ -269,27 +269,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7259259259259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="127">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">IMGG00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Deep Ebi Fry Wok</t>
+    <t xml:space="preserve">UCUL00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcor Deep Fry Wok</t>
   </si>
   <si>
     <t xml:space="preserve">Diameter: 16cm 
@@ -107,28 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">IMGG00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Shallow Rebus Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMGG00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Deep BEEF Fry Wok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMGG00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Shallow KOBE Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMGG00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcor Deep MICIN Fry Wok</t>
+    <t xml:space="preserve">UCUL00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCUL00100</t>
   </si>
 </sst>
 </file>
@@ -219,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,10 +513,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -261,35 +530,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -426,8 +695,8 @@
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -489,10 +758,10 @@
     </row>
     <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -554,10 +823,10 @@
     </row>
     <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -619,10 +888,10 @@
     </row>
     <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -682,45 +951,6220 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>415</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>306</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>126</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>406</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>306</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>126</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>406</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>416</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>307</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>407</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>307</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>407</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>327</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>417</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>308</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>128</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>408</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>308</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>128</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>408</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>328</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>418</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>309</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>409</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>309</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>409</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>329</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>419</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>310</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>410</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>310</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>410</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>330</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>420</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>311</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>411</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>311</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>411</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>421</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>312</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>412</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>312</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>412</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>422</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>313</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>413</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>313</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>413</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>333</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>423</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>314</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>414</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>314</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>414</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>334</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>424</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>315</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>415</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>315</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>415</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>335</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>425</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>316</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>416</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>336</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>426</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>417</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>417</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>427</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>318</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>418</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>318</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>418</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>338</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>428</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>319</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>419</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>319</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>419</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>339</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>429</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>420</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>420</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v>340</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>430</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>321</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>421</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>321</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>421</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>341</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>431</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>322</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>422</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>322</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>422</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>152</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>432</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>423</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>423</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>433</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>324</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>424</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>324</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>424</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <v>344</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>434</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>425</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>425</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>345</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>435</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>426</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="N28" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="O28" s="4" t="n">
+        <v>426</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="4" t="n">
+        <v>346</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="T28" s="4" t="n">
+        <v>436</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>327</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>427</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>327</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="O29" s="4" t="n">
+        <v>427</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="4" t="n">
+        <v>347</v>
+      </c>
+      <c r="R29" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="S29" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v>437</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>328</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>428</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>328</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>428</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="4" t="n">
+        <v>348</v>
+      </c>
+      <c r="R30" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="S30" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v>438</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>329</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>429</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>329</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>429</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="4" t="n">
+        <v>349</v>
+      </c>
+      <c r="R31" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="S31" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="T31" s="4" t="n">
+        <v>439</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>330</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>430</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>330</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>430</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>440</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>431</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v>431</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="4" t="n">
+        <v>351</v>
+      </c>
+      <c r="R33" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="T33" s="4" t="n">
+        <v>441</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>152</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>432</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>332</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O34" s="4" t="n">
+        <v>432</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="R34" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="S34" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="T34" s="4" t="n">
+        <v>442</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>333</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>433</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>333</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="O35" s="4" t="n">
+        <v>433</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="4" t="n">
+        <v>353</v>
+      </c>
+      <c r="R35" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v>443</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>334</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>434</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>334</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <v>434</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="R36" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="S36" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="T36" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>335</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>435</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>335</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="O37" s="4" t="n">
+        <v>435</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="R37" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="S37" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="T37" s="4" t="n">
+        <v>445</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>336</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>436</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>336</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>436</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="4" t="n">
+        <v>356</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>166</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>446</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>437</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="O39" s="4" t="n">
+        <v>437</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="4" t="n">
+        <v>357</v>
+      </c>
+      <c r="R39" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="S39" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v>447</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>338</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>438</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>338</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <v>438</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>358</v>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>448</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>339</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>439</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>339</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <v>439</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>359</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="T41" s="4" t="n">
+        <v>449</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>340</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>440</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>340</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v>440</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v>360</v>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v>170</v>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>341</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>441</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>341</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="N43" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="O43" s="4" t="n">
+        <v>441</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="R43" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="S43" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="T43" s="4" t="n">
+        <v>451</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>442</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="N44" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="O44" s="4" t="n">
+        <v>442</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="4" t="n">
+        <v>362</v>
+      </c>
+      <c r="R44" s="4" t="n">
+        <v>232</v>
+      </c>
+      <c r="S44" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="T44" s="4" t="n">
+        <v>452</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>443</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="N45" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="O45" s="4" t="n">
+        <v>443</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="4" t="n">
+        <v>363</v>
+      </c>
+      <c r="R45" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="S45" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="T45" s="4" t="n">
+        <v>453</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>344</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>344</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="4" t="n">
+        <v>364</v>
+      </c>
+      <c r="R46" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="S46" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="T46" s="4" t="n">
+        <v>454</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>345</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>445</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>345</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="N47" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="O47" s="4" t="n">
+        <v>445</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="4" t="n">
+        <v>365</v>
+      </c>
+      <c r="R47" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="S47" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="T47" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>346</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>166</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>446</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="4" t="n">
+        <v>346</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>166</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <v>446</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="4" t="n">
+        <v>366</v>
+      </c>
+      <c r="R48" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="S48" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <v>456</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>347</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <v>447</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="4" t="n">
+        <v>347</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="N49" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="O49" s="4" t="n">
+        <v>447</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="4" t="n">
+        <v>367</v>
+      </c>
+      <c r="R49" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="S49" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="T49" s="4" t="n">
+        <v>457</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>348</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>448</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="4" t="n">
+        <v>348</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="N50" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="O50" s="4" t="n">
+        <v>448</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="4" t="n">
+        <v>368</v>
+      </c>
+      <c r="R50" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="S50" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <v>458</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>349</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>449</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>349</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="N51" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="O51" s="4" t="n">
+        <v>449</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="4" t="n">
+        <v>369</v>
+      </c>
+      <c r="R51" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="S51" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="T51" s="4" t="n">
+        <v>459</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="N52" s="4" t="n">
+        <v>170</v>
+      </c>
+      <c r="O52" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="R52" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="S52" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="T52" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>351</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>451</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="4" t="n">
+        <v>351</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="N53" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="O53" s="4" t="n">
+        <v>451</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="R53" s="4" t="n">
+        <v>241</v>
+      </c>
+      <c r="S53" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="T53" s="4" t="n">
+        <v>461</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>452</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="N54" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="O54" s="4" t="n">
+        <v>452</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" s="4" t="n">
+        <v>372</v>
+      </c>
+      <c r="R54" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="S54" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="T54" s="4" t="n">
+        <v>462</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>353</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>453</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>353</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="N55" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="O55" s="4" t="n">
+        <v>453</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="4" t="n">
+        <v>373</v>
+      </c>
+      <c r="R55" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="S55" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="T55" s="4" t="n">
+        <v>463</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>454</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="M56" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="N56" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="O56" s="4" t="n">
+        <v>454</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="R56" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="S56" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="T56" s="4" t="n">
+        <v>464</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="M57" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="N57" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="O57" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="R57" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="S57" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>465</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>356</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>456</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>356</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="N58" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="O58" s="4" t="n">
+        <v>456</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <v>376</v>
+      </c>
+      <c r="R58" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="S58" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="T58" s="4" t="n">
+        <v>466</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>357</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>457</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>357</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="N59" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="O59" s="4" t="n">
+        <v>457</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="R59" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="S59" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="T59" s="4" t="n">
+        <v>467</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>358</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>458</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>358</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="N60" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="O60" s="4" t="n">
+        <v>458</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="4" t="n">
+        <v>378</v>
+      </c>
+      <c r="R60" s="4" t="n">
+        <v>248</v>
+      </c>
+      <c r="S60" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="T60" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>359</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>459</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>359</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="O61" s="4" t="n">
+        <v>459</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>379</v>
+      </c>
+      <c r="R61" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="S61" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>469</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>360</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="J62" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>360</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="N62" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="O62" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="R62" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="S62" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="T62" s="4" t="n">
+        <v>470</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>461</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="O63" s="4" t="n">
+        <v>461</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" s="4" t="n">
+        <v>381</v>
+      </c>
+      <c r="R63" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="S63" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="T63" s="4" t="n">
+        <v>471</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>362</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>232</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>462</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>362</v>
+      </c>
+      <c r="M64" s="4" t="n">
+        <v>232</v>
+      </c>
+      <c r="N64" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="O64" s="4" t="n">
+        <v>462</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64" s="4" t="n">
+        <v>382</v>
+      </c>
+      <c r="R64" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="S64" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="T64" s="4" t="n">
+        <v>472</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>363</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>463</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>363</v>
+      </c>
+      <c r="M65" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="N65" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="O65" s="4" t="n">
+        <v>463</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" s="4" t="n">
+        <v>383</v>
+      </c>
+      <c r="R65" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="S65" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="T65" s="4" t="n">
+        <v>473</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>364</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="J66" s="4" t="n">
+        <v>464</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>364</v>
+      </c>
+      <c r="M66" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="N66" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="O66" s="4" t="n">
+        <v>464</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="4" t="n">
+        <v>384</v>
+      </c>
+      <c r="R66" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="S66" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="T66" s="4" t="n">
+        <v>474</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>365</v>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="J67" s="4" t="n">
+        <v>465</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>365</v>
+      </c>
+      <c r="M67" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="N67" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="O67" s="4" t="n">
+        <v>465</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>385</v>
+      </c>
+      <c r="R67" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="S67" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="T67" s="4" t="n">
+        <v>475</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>366</v>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="J68" s="4" t="n">
+        <v>466</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" s="4" t="n">
+        <v>366</v>
+      </c>
+      <c r="M68" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="N68" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="O68" s="4" t="n">
+        <v>466</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>386</v>
+      </c>
+      <c r="R68" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="S68" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="T68" s="4" t="n">
+        <v>476</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>367</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="J69" s="4" t="n">
+        <v>467</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="4" t="n">
+        <v>367</v>
+      </c>
+      <c r="M69" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="N69" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="O69" s="4" t="n">
+        <v>467</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>387</v>
+      </c>
+      <c r="R69" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="S69" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="T69" s="4" t="n">
+        <v>477</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>368</v>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="J70" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" s="4" t="n">
+        <v>368</v>
+      </c>
+      <c r="M70" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="N70" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="O70" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>388</v>
+      </c>
+      <c r="R70" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="S70" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="T70" s="4" t="n">
+        <v>478</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>369</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>469</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <v>369</v>
+      </c>
+      <c r="M71" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>469</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>479</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="J72" s="4" t="n">
+        <v>470</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="M72" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="N72" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="O72" s="4" t="n">
+        <v>470</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>390</v>
+      </c>
+      <c r="R72" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>480</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>241</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="J73" s="4" t="n">
+        <v>471</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="M73" s="4" t="n">
+        <v>241</v>
+      </c>
+      <c r="N73" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="O73" s="4" t="n">
+        <v>471</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>391</v>
+      </c>
+      <c r="R73" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>481</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>372</v>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="J74" s="4" t="n">
+        <v>472</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" s="4" t="n">
+        <v>372</v>
+      </c>
+      <c r="M74" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="N74" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="O74" s="4" t="n">
+        <v>472</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>392</v>
+      </c>
+      <c r="R74" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="S74" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>482</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>373</v>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="J75" s="4" t="n">
+        <v>473</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>373</v>
+      </c>
+      <c r="M75" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="N75" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="O75" s="4" t="n">
+        <v>473</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>393</v>
+      </c>
+      <c r="R75" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="S75" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="T75" s="4" t="n">
+        <v>483</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="J76" s="4" t="n">
+        <v>474</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="M76" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="N76" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="O76" s="4" t="n">
+        <v>474</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" s="4" t="n">
+        <v>394</v>
+      </c>
+      <c r="R76" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="S76" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="T76" s="4" t="n">
+        <v>484</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="H77" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="I77" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="J77" s="4" t="n">
+        <v>475</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="M77" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="N77" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="O77" s="4" t="n">
+        <v>475</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q77" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="R77" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="S77" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="T77" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>376</v>
+      </c>
+      <c r="H78" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="I78" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="J78" s="4" t="n">
+        <v>476</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" s="4" t="n">
+        <v>376</v>
+      </c>
+      <c r="M78" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="N78" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="O78" s="4" t="n">
+        <v>476</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78" s="4" t="n">
+        <v>396</v>
+      </c>
+      <c r="R78" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="S78" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="T78" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>477</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="M79" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="N79" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="O79" s="4" t="n">
+        <v>477</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79" s="4" t="n">
+        <v>397</v>
+      </c>
+      <c r="R79" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="S79" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="T79" s="4" t="n">
+        <v>487</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>378</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>248</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>478</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>378</v>
+      </c>
+      <c r="M80" s="4" t="n">
+        <v>248</v>
+      </c>
+      <c r="N80" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="O80" s="4" t="n">
+        <v>478</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="R80" s="4" t="n">
+        <v>268</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>488</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>379</v>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="J81" s="4" t="n">
+        <v>479</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>379</v>
+      </c>
+      <c r="M81" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="N81" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="O81" s="4" t="n">
+        <v>479</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="R81" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="S81" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="T81" s="4" t="n">
+        <v>489</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="J82" s="4" t="n">
+        <v>480</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="M82" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="N82" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="O82" s="4" t="n">
+        <v>480</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="R82" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="S82" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="T82" s="4" t="n">
+        <v>490</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>381</v>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="J83" s="4" t="n">
+        <v>481</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" s="4" t="n">
+        <v>381</v>
+      </c>
+      <c r="M83" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="N83" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="O83" s="4" t="n">
+        <v>481</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83" s="4" t="n">
+        <v>401</v>
+      </c>
+      <c r="R83" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="S83" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="T83" s="4" t="n">
+        <v>491</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>382</v>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="J84" s="4" t="n">
+        <v>482</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" s="4" t="n">
+        <v>382</v>
+      </c>
+      <c r="M84" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="N84" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="O84" s="4" t="n">
+        <v>482</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>402</v>
+      </c>
+      <c r="R84" s="4" t="n">
+        <v>272</v>
+      </c>
+      <c r="S84" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="T84" s="4" t="n">
+        <v>492</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>383</v>
+      </c>
+      <c r="H85" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="I85" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="J85" s="4" t="n">
+        <v>483</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" s="4" t="n">
+        <v>383</v>
+      </c>
+      <c r="M85" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="N85" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="O85" s="4" t="n">
+        <v>483</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85" s="4" t="n">
+        <v>403</v>
+      </c>
+      <c r="R85" s="4" t="n">
+        <v>273</v>
+      </c>
+      <c r="S85" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="T85" s="4" t="n">
+        <v>493</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>384</v>
+      </c>
+      <c r="H86" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="I86" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="J86" s="4" t="n">
+        <v>484</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" s="4" t="n">
+        <v>384</v>
+      </c>
+      <c r="M86" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="N86" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="O86" s="4" t="n">
+        <v>484</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q86" s="4" t="n">
+        <v>404</v>
+      </c>
+      <c r="R86" s="4" t="n">
+        <v>274</v>
+      </c>
+      <c r="S86" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="T86" s="4" t="n">
+        <v>494</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>385</v>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="I87" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="J87" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" s="4" t="n">
+        <v>385</v>
+      </c>
+      <c r="M87" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="N87" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="O87" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q87" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="R87" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="S87" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="T87" s="4" t="n">
+        <v>495</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>386</v>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="J88" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" s="4" t="n">
+        <v>386</v>
+      </c>
+      <c r="M88" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="N88" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="O88" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" s="4" t="n">
+        <v>406</v>
+      </c>
+      <c r="R88" s="4" t="n">
+        <v>276</v>
+      </c>
+      <c r="S88" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="T88" s="4" t="n">
+        <v>496</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>387</v>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="J89" s="4" t="n">
+        <v>487</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" s="4" t="n">
+        <v>387</v>
+      </c>
+      <c r="M89" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="O89" s="4" t="n">
+        <v>487</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="4" t="n">
+        <v>407</v>
+      </c>
+      <c r="R89" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="S89" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="T89" s="4" t="n">
+        <v>497</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>388</v>
+      </c>
+      <c r="H90" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>488</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>388</v>
+      </c>
+      <c r="M90" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="N90" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="O90" s="4" t="n">
+        <v>488</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" s="4" t="n">
+        <v>408</v>
+      </c>
+      <c r="R90" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="S90" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="T90" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="H91" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>489</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="M91" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="N91" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>489</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>409</v>
+      </c>
+      <c r="R91" s="4" t="n">
+        <v>279</v>
+      </c>
+      <c r="S91" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="T91" s="4" t="n">
+        <v>499</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>390</v>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="J92" s="4" t="n">
+        <v>490</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" s="4" t="n">
+        <v>390</v>
+      </c>
+      <c r="M92" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="N92" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="O92" s="4" t="n">
+        <v>490</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q92" s="4" t="n">
+        <v>410</v>
+      </c>
+      <c r="R92" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="S92" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="T92" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>391</v>
+      </c>
+      <c r="H93" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="I93" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="J93" s="4" t="n">
+        <v>491</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" s="4" t="n">
+        <v>391</v>
+      </c>
+      <c r="M93" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="N93" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="O93" s="4" t="n">
+        <v>491</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q93" s="4" t="n">
+        <v>411</v>
+      </c>
+      <c r="R93" s="4" t="n">
+        <v>281</v>
+      </c>
+      <c r="S93" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="T93" s="4" t="n">
+        <v>501</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>392</v>
+      </c>
+      <c r="H94" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="J94" s="4" t="n">
+        <v>492</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" s="4" t="n">
+        <v>392</v>
+      </c>
+      <c r="M94" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="N94" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="O94" s="4" t="n">
+        <v>492</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q94" s="4" t="n">
+        <v>412</v>
+      </c>
+      <c r="R94" s="4" t="n">
+        <v>282</v>
+      </c>
+      <c r="S94" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="T94" s="4" t="n">
+        <v>502</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>393</v>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="J95" s="4" t="n">
+        <v>493</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L95" s="4" t="n">
+        <v>393</v>
+      </c>
+      <c r="M95" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="N95" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="O95" s="4" t="n">
+        <v>493</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q95" s="4" t="n">
+        <v>413</v>
+      </c>
+      <c r="R95" s="4" t="n">
+        <v>283</v>
+      </c>
+      <c r="S95" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="T95" s="4" t="n">
+        <v>503</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>394</v>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="J96" s="4" t="n">
+        <v>494</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" s="4" t="n">
+        <v>394</v>
+      </c>
+      <c r="M96" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="N96" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="O96" s="4" t="n">
+        <v>494</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q96" s="4" t="n">
+        <v>414</v>
+      </c>
+      <c r="R96" s="4" t="n">
+        <v>284</v>
+      </c>
+      <c r="S96" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="T96" s="4" t="n">
+        <v>504</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="J97" s="4" t="n">
+        <v>495</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="M97" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="N97" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="O97" s="4" t="n">
+        <v>495</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q97" s="4" t="n">
+        <v>415</v>
+      </c>
+      <c r="R97" s="4" t="n">
+        <v>285</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="T97" s="4" t="n">
+        <v>505</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>396</v>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="J98" s="4" t="n">
+        <v>496</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" s="4" t="n">
+        <v>396</v>
+      </c>
+      <c r="M98" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="N98" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="O98" s="4" t="n">
+        <v>496</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q98" s="4" t="n">
+        <v>416</v>
+      </c>
+      <c r="R98" s="4" t="n">
+        <v>286</v>
+      </c>
+      <c r="S98" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="T98" s="4" t="n">
+        <v>506</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>397</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="J99" s="4" t="n">
+        <v>497</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" s="4" t="n">
+        <v>397</v>
+      </c>
+      <c r="M99" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="N99" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="O99" s="4" t="n">
+        <v>497</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q99" s="4" t="n">
+        <v>417</v>
+      </c>
+      <c r="R99" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="S99" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="T99" s="4" t="n">
+        <v>507</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>268</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="J100" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="M100" s="4" t="n">
+        <v>268</v>
+      </c>
+      <c r="N100" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="O100" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q100" s="4" t="n">
+        <v>418</v>
+      </c>
+      <c r="R100" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="S100" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="T100" s="4" t="n">
+        <v>508</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="J101" s="4" t="n">
+        <v>499</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="M101" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="N101" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="O101" s="4" t="n">
+        <v>499</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q101" s="4" t="n">
+        <v>419</v>
+      </c>
+      <c r="R101" s="4" t="n">
+        <v>289</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="T101" s="4" t="n">
+        <v>509</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation allowBlank="true" error="Kode SKU harus diisi dengan kode unik yang terdiri dari 4-20 karakter." errorTitle="SKU" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A6" type="textLength">
+    <dataValidation allowBlank="true" error="Kode SKU harus diisi dengan kode unik yang terdiri dari 4-20 karakter." errorTitle="SKU" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A101" type="textLength">
       <formula1>4</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Spesifikasi harus diisi dan terdiri dari 4-2000 karakter." errorTitle="Specification" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C6" type="textLength">
+    <dataValidation allowBlank="true" error="Spesifikasi harus diisi dan terdiri dari 4-2000 karakter." errorTitle="Specification" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C101" type="textLength">
       <formula1>4</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Unit of Measurement harus diisi dan terdiri dari 1-15 karakter." errorTitle="UOM" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D6" type="textLength">
+    <dataValidation allowBlank="true" error="Unit of Measurement harus diisi dan terdiri dari 1-15 karakter." errorTitle="UOM" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D101" type="textLength">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Nama produk harus diisi dan terdiri dari 3-70 karakter." errorTitle="Name" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B6" type="textLength">
+    <dataValidation allowBlank="true" error="Nama produk harus diisi dan terdiri dari 3-70 karakter." errorTitle="Name" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B101" type="textLength">
       <formula1>3</formula1>
       <formula2>70</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Harus diisi dengan angka." operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:J6 L1:O6 Q1:T6" type="decimal">
+    <dataValidation allowBlank="true" error="Harus diisi dengan angka." operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:J101 L1:O101 Q1:T101" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Hanya dapat diisi dengan 'full' atau 'part'." errorTitle="Full/Part" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="E1:E6" type="list">
+    <dataValidation allowBlank="true" error="Hanya dapat diisi dengan 'full' atau 'part'." errorTitle="Full/Part" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="E1:E101" type="list">
       <formula1>"full,part"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Handling list tidak boleh lebih dari 2000 karakter." errorTitle="Handling List" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1:F6" type="textLength">
+    <dataValidation allowBlank="true" error="Handling list tidak boleh lebih dari 2000 karakter." errorTitle="Handling List" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1:F101" type="textLength">
       <formula1>2000</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL" errorTitle="Kategori Ukuran" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K1:K6" type="list">
+    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL" errorTitle="Kategori Ukuran" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K1:K101" type="list">
       <formula1>"S,M,L,XL"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL." errorTitle="Kategori Ukuran" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P1:P6" type="list">
+    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL." errorTitle="Kategori Ukuran" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P1:P101" type="list">
       <formula1>"S,M,L,XL"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL." errorTitle="Kategori Ukuran" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U1:U6" type="list">
+    <dataValidation allowBlank="true" error="Kategori ukuran harus diisi dengan S, M, L, XL." errorTitle="Kategori Ukuran" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U1:U101" type="list">
       <formula1>"S,M,L,XL"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">UCUL00001</t>
+    <t xml:space="preserve">ABZY00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">UCUL00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCUL00100</t>
+    <t xml:space="preserve">ABZY00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZY00100</t>
   </si>
 </sst>
 </file>
@@ -532,33 +532,33 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">ABZY00001</t>
+    <t xml:space="preserve">ABQY00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">ABZY00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABZY00100</t>
+    <t xml:space="preserve">ABQY00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABQY00100</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">ABQY00001</t>
+    <t xml:space="preserve">NSQL00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">ABQY00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABQY00100</t>
+    <t xml:space="preserve">NSQL00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSQL00100</t>
   </si>
 </sst>
 </file>
@@ -532,33 +532,33 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7259259259259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">NSQL00001</t>
+    <t xml:space="preserve">GSQL00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">NSQL00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSQL00100</t>
+    <t xml:space="preserve">GSQL00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSQL00100</t>
   </si>
 </sst>
 </file>
@@ -532,33 +532,33 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.9296296296296"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -626,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -691,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -756,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -821,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -886,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -951,7 +951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>76</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>78</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>82</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>83</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>85</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>86</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>87</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>89</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>90</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>91</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>93</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>97</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>98</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>99</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>100</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>101</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>102</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>103</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>104</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>105</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>106</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>107</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>108</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>109</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>110</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>111</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>112</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>113</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>114</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>115</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>116</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>117</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>118</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>119</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>120</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>121</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>122</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>123</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>124</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>125</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>126</v>
       </c>

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">GSQL00001</t>
+    <t xml:space="preserve">TWNT00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">GSQL00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSQL00100</t>
+    <t xml:space="preserve">TWNT00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWNT00100</t>
   </si>
 </sst>
 </file>
@@ -532,33 +532,33 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.6481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/files/SKU.xlsx
+++ b/files/SKU.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Package category</t>
   </si>
   <si>
-    <t xml:space="preserve">TWNT00001</t>
+    <t xml:space="preserve">WIBU00001</t>
   </si>
   <si>
     <t xml:space="preserve">Alcor Deep Fry Wok</t>
@@ -107,301 +107,301 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">TWNT00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWNT00100</t>
+    <t xml:space="preserve">WIBU00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIBU00100</t>
   </si>
 </sst>
 </file>
@@ -538,27 +538,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.6481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="26.5555555555556"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.9111111111111"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.7037037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="27.8296296296296"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.0851851851852"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
